--- a/Raw data/Repeated measures/nonSWS_repeated.xlsx
+++ b/Raw data/Repeated measures/nonSWS_repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/Repeated measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64CE94D-6EFD-6D41-BCDE-AA31CE4C99A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95815A50-96D3-B340-9FF2-14F961534EC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{23E88A98-89B7-DC49-A1A4-D6840988BE1C}"/>
   </bookViews>
@@ -240,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -284,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -665,7 +674,7 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD39"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,28 +1164,28 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="B16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="23">
         <v>13</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="23">
         <v>4</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="23">
         <v>27</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="17" t="s">
@@ -1187,28 +1196,28 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="23">
         <v>13</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="23">
         <v>4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="23">
         <v>27</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="17" t="s">
@@ -1219,28 +1228,28 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="B18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="23">
         <v>7</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="23">
         <v>3</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="23">
         <v>22</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="17" t="s">
@@ -1251,28 +1260,28 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="23">
         <v>7</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="23">
         <v>3</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="23">
         <v>22</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="17" t="s">
@@ -1283,28 +1292,28 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5">
-        <v>11</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="B20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="23">
+        <v>11</v>
+      </c>
+      <c r="E20" s="23">
         <v>13</v>
       </c>
-      <c r="F20" s="5">
-        <v>18</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="F20" s="23">
+        <v>18</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="17" t="s">
@@ -1315,28 +1324,28 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5">
-        <v>11</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="B21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="23">
+        <v>11</v>
+      </c>
+      <c r="E21" s="23">
         <v>13</v>
       </c>
-      <c r="F21" s="5">
-        <v>18</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="F21" s="23">
+        <v>18</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="17" t="s">

--- a/Raw data/Repeated measures/nonSWS_repeated.xlsx
+++ b/Raw data/Repeated measures/nonSWS_repeated.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/Repeated measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95815A50-96D3-B340-9FF2-14F961534EC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E94EC03-F988-9342-A04F-95FAB3FE715A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{23E88A98-89B7-DC49-A1A4-D6840988BE1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="66">
   <si>
     <t>Code</t>
   </si>
@@ -217,6 +222,12 @@
   </si>
   <si>
     <t>AC11</t>
+  </si>
+  <si>
+    <t>AM1</t>
+  </si>
+  <si>
+    <t>AM2</t>
   </si>
 </sst>
 </file>
@@ -240,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +288,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -290,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,6 +372,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -671,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AA1583-3862-AB4C-8B1A-6DB7E98AAC28}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2252,151 +2272,151 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="15">
-        <v>34</v>
-      </c>
-      <c r="D50" s="16">
-        <v>2</v>
-      </c>
-      <c r="E50" s="16">
-        <v>1</v>
-      </c>
-      <c r="F50" s="16">
-        <v>30</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="15" t="s">
+      <c r="A50" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="24">
+        <v>11</v>
+      </c>
+      <c r="E50" s="24">
+        <v>9</v>
+      </c>
+      <c r="F50" s="24">
+        <v>23</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="24" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="24">
+        <v>11</v>
+      </c>
+      <c r="E51" s="24">
+        <v>9</v>
+      </c>
+      <c r="F51" s="24">
+        <v>23</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="15">
-        <v>34</v>
-      </c>
-      <c r="D51" s="16">
-        <v>2</v>
-      </c>
-      <c r="E51" s="16">
-        <v>1</v>
-      </c>
-      <c r="F51" s="16">
-        <v>30</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51">
+      <c r="E52" s="24">
+        <v>13</v>
+      </c>
+      <c r="F52" s="24">
+        <v>27</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="15">
-        <v>42</v>
-      </c>
-      <c r="D52" s="16">
-        <v>16</v>
-      </c>
-      <c r="E52" s="16">
-        <v>18</v>
-      </c>
-      <c r="F52" s="16">
-        <v>21</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="15">
-        <v>42</v>
-      </c>
-      <c r="D53" s="16">
-        <v>16</v>
-      </c>
-      <c r="E53" s="16">
-        <v>18</v>
-      </c>
-      <c r="F53" s="16">
-        <v>21</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="15" t="s">
+      <c r="E53" s="24">
+        <v>13</v>
+      </c>
+      <c r="F53" s="24">
+        <v>27</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J53">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="15">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D54" s="16">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E54" s="16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F54" s="16">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>18</v>
@@ -2413,22 +2433,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="15">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D55" s="16">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E55" s="16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F55" s="16">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>18</v>
@@ -2440,27 +2460,27 @@
         <v>16</v>
       </c>
       <c r="J55">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C56" s="15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D56" s="16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E56" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F56" s="16">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>18</v>
@@ -2472,27 +2492,27 @@
         <v>15</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C57" s="15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D57" s="16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E57" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="16">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>18</v>
@@ -2504,24 +2524,24 @@
         <v>16</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C58" s="15">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D58" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F58" s="16">
         <v>19</v>
@@ -2541,19 +2561,19 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C59" s="15">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D59" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F59" s="16">
         <v>19</v>
@@ -2568,12 +2588,12 @@
         <v>16</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>43</v>
@@ -2582,13 +2602,13 @@
         <v>41</v>
       </c>
       <c r="D60" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E60" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F60" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>18</v>
@@ -2605,7 +2625,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>43</v>
@@ -2614,13 +2634,13 @@
         <v>41</v>
       </c>
       <c r="D61" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F61" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>18</v>
@@ -2632,27 +2652,27 @@
         <v>16</v>
       </c>
       <c r="J61">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C62" s="15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D62" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E62" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F62" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>18</v>
@@ -2664,27 +2684,27 @@
         <v>15</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D63" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E63" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F63" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G63" s="15" t="s">
         <v>18</v>
@@ -2701,22 +2721,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C64" s="15">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D64" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E64" s="16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F64" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>18</v>
@@ -2728,27 +2748,27 @@
         <v>15</v>
       </c>
       <c r="J64">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="15">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D65" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E65" s="16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F65" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>18</v>
@@ -2760,24 +2780,24 @@
         <v>16</v>
       </c>
       <c r="J65">
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C66" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E66" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F66" s="16">
         <v>21</v>
@@ -2792,24 +2812,24 @@
         <v>15</v>
       </c>
       <c r="J66">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C67" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D67" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E67" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F67" s="16">
         <v>21</v>
@@ -2824,91 +2844,91 @@
         <v>16</v>
       </c>
       <c r="J67">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C68" s="15">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D68" s="16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E68" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F68" s="16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G68" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="15">
+        <v>29</v>
+      </c>
+      <c r="D69" s="16">
+        <v>12</v>
+      </c>
+      <c r="E69" s="16">
+        <v>16</v>
+      </c>
+      <c r="F69" s="16">
+        <v>18</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="15">
         <v>48</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="16">
         <v>9</v>
       </c>
-      <c r="E69" s="16">
-        <v>14</v>
-      </c>
-      <c r="F69" s="16">
-        <v>20</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="15">
-        <v>32</v>
-      </c>
-      <c r="D70" s="16">
-        <v>1</v>
-      </c>
       <c r="E70" s="16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F70" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>18</v>
@@ -2920,27 +2940,27 @@
         <v>15</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="15" t="s">
+      <c r="A71" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C71" s="15">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D71" s="16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E71" s="16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F71" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>18</v>
@@ -2956,136 +2976,136 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="22">
-        <v>8</v>
-      </c>
-      <c r="E72" s="22">
-        <v>11</v>
-      </c>
-      <c r="F72" s="22">
-        <v>26</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J72" s="18">
+      <c r="A72" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="15">
+        <v>48</v>
+      </c>
+      <c r="D72" s="16">
+        <v>9</v>
+      </c>
+      <c r="E72" s="16">
+        <v>14</v>
+      </c>
+      <c r="F72" s="16">
+        <v>20</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="15">
+        <v>48</v>
+      </c>
+      <c r="D73" s="16">
+        <v>9</v>
+      </c>
+      <c r="E73" s="16">
+        <v>14</v>
+      </c>
+      <c r="F73" s="16">
+        <v>20</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="15">
+        <v>32</v>
+      </c>
+      <c r="D74" s="16">
+        <v>1</v>
+      </c>
+      <c r="E74" s="16">
+        <v>4</v>
+      </c>
+      <c r="F74" s="16">
+        <v>20</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="22">
-        <v>8</v>
-      </c>
-      <c r="E73" s="22">
-        <v>11</v>
-      </c>
-      <c r="F73" s="22">
-        <v>26</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="22">
-        <v>10</v>
-      </c>
-      <c r="E74" s="22">
-        <v>14</v>
-      </c>
-      <c r="F74" s="22">
-        <v>23</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J74" s="18">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="15">
+        <v>32</v>
+      </c>
+      <c r="D75" s="16">
+        <v>1</v>
+      </c>
+      <c r="E75" s="16">
+        <v>4</v>
+      </c>
+      <c r="F75" s="16">
+        <v>20</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75">
         <v>3.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="22">
-        <v>10</v>
-      </c>
-      <c r="E75" s="22">
-        <v>14</v>
-      </c>
-      <c r="F75" s="22">
-        <v>23</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" s="18">
-        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>43</v>
@@ -3094,16 +3114,16 @@
         <v>12</v>
       </c>
       <c r="D76" s="22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E76" s="22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F76" s="22">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H76" s="20" t="s">
         <v>14</v>
@@ -3117,7 +3137,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>43</v>
@@ -3126,16 +3146,16 @@
         <v>12</v>
       </c>
       <c r="D77" s="22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E77" s="22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F77" s="22">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H77" s="20" t="s">
         <v>14</v>
@@ -3144,12 +3164,12 @@
         <v>16</v>
       </c>
       <c r="J77" s="18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>43</v>
@@ -3158,13 +3178,13 @@
         <v>12</v>
       </c>
       <c r="D78" s="22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E78" s="22">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F78" s="22">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>18</v>
@@ -3176,12 +3196,12 @@
         <v>15</v>
       </c>
       <c r="J78" s="18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>43</v>
@@ -3190,13 +3210,13 @@
         <v>12</v>
       </c>
       <c r="D79" s="22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E79" s="22">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F79" s="22">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G79" s="20" t="s">
         <v>18</v>
@@ -3213,7 +3233,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>43</v>
@@ -3222,10 +3242,10 @@
         <v>12</v>
       </c>
       <c r="D80" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" s="22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F80" s="22">
         <v>18</v>
@@ -3240,12 +3260,12 @@
         <v>15</v>
       </c>
       <c r="J80" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>43</v>
@@ -3254,10 +3274,10 @@
         <v>12</v>
       </c>
       <c r="D81" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" s="22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F81" s="22">
         <v>18</v>
@@ -3272,12 +3292,12 @@
         <v>16</v>
       </c>
       <c r="J81" s="18">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>43</v>
@@ -3286,10 +3306,10 @@
         <v>12</v>
       </c>
       <c r="D82" s="22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E82" s="22">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F82" s="22">
         <v>18</v>
@@ -3304,12 +3324,12 @@
         <v>15</v>
       </c>
       <c r="J82" s="18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>43</v>
@@ -3318,10 +3338,10 @@
         <v>12</v>
       </c>
       <c r="D83" s="22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E83" s="22">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F83" s="22">
         <v>18</v>
@@ -3336,12 +3356,12 @@
         <v>16</v>
       </c>
       <c r="J83" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>43</v>
@@ -3350,10 +3370,10 @@
         <v>12</v>
       </c>
       <c r="D84" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E84" s="22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F84" s="22">
         <v>18</v>
@@ -3368,38 +3388,166 @@
         <v>15</v>
       </c>
       <c r="J84" s="18">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="22">
+        <v>12</v>
+      </c>
+      <c r="E85" s="22">
+        <v>17</v>
+      </c>
+      <c r="F85" s="22">
+        <v>18</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="22">
+        <v>12</v>
+      </c>
+      <c r="E86" s="22">
+        <v>14</v>
+      </c>
+      <c r="F86" s="22">
+        <v>18</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="22">
+        <v>12</v>
+      </c>
+      <c r="E87" s="22">
+        <v>14</v>
+      </c>
+      <c r="F87" s="22">
+        <v>18</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="22">
-        <v>11</v>
-      </c>
-      <c r="E85" s="22">
-        <v>15</v>
-      </c>
-      <c r="F85" s="22">
-        <v>18</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" s="18">
+      <c r="B88" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="22">
+        <v>11</v>
+      </c>
+      <c r="E88" s="22">
+        <v>15</v>
+      </c>
+      <c r="F88" s="22">
+        <v>18</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="22">
+        <v>11</v>
+      </c>
+      <c r="E89" s="22">
+        <v>15</v>
+      </c>
+      <c r="F89" s="22">
+        <v>18</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="18">
         <v>5</v>
       </c>
     </row>

--- a/Raw data/Repeated measures/nonSWS_repeated.xlsx
+++ b/Raw data/Repeated measures/nonSWS_repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/Repeated measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E94EC03-F988-9342-A04F-95FAB3FE715A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850213E9-3B25-F043-B545-F33EAE7D95E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{23E88A98-89B7-DC49-A1A4-D6840988BE1C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="68">
   <si>
     <t>Code</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>MedinScores</t>
-  </si>
-  <si>
     <t>LN1</t>
   </si>
   <si>
@@ -228,6 +225,15 @@
   </si>
   <si>
     <t>AM2</t>
+  </si>
+  <si>
+    <t>AM4</t>
+  </si>
+  <si>
+    <t>AM7</t>
+  </si>
+  <si>
+    <t>MedianScores</t>
   </si>
 </sst>
 </file>
@@ -307,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,6 +381,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -691,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AA1583-3862-AB4C-8B1A-6DB7E98AAC28}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,18 +747,18 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6">
         <v>7</v>
@@ -755,13 +770,13 @@
         <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>3.5</v>
@@ -769,13 +784,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6">
         <v>7</v>
@@ -787,13 +802,13 @@
         <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -801,10 +816,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>33</v>
@@ -819,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -833,10 +848,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5">
         <v>33</v>
@@ -851,13 +866,13 @@
         <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>3.5</v>
@@ -865,10 +880,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5">
         <v>41</v>
@@ -883,13 +898,13 @@
         <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <v>3.5</v>
@@ -897,10 +912,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
         <v>41</v>
@@ -915,13 +930,13 @@
         <v>21</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -929,10 +944,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="5">
         <v>51</v>
@@ -947,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -961,10 +976,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="5">
         <v>51</v>
@@ -979,13 +994,13 @@
         <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -993,10 +1008,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5">
         <v>35</v>
@@ -1011,13 +1026,13 @@
         <v>19</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -1025,10 +1040,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5">
         <v>35</v>
@@ -1043,13 +1058,13 @@
         <v>19</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1057,10 +1072,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5">
         <v>32</v>
@@ -1075,13 +1090,13 @@
         <v>29</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -1089,10 +1104,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5">
         <v>32</v>
@@ -1107,13 +1122,13 @@
         <v>29</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1121,10 +1136,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5">
         <v>35</v>
@@ -1139,13 +1154,13 @@
         <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -1153,10 +1168,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5">
         <v>35</v>
@@ -1171,13 +1186,13 @@
         <v>21</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -1185,13 +1200,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="23">
         <v>13</v>
@@ -1203,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="18">
         <v>2</v>
@@ -1217,13 +1232,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="23">
         <v>13</v>
@@ -1235,13 +1250,13 @@
         <v>27</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="18">
         <v>3</v>
@@ -1249,13 +1264,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="23">
         <v>7</v>
@@ -1267,13 +1282,13 @@
         <v>22</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="18">
         <v>4</v>
@@ -1281,13 +1296,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="23">
         <v>7</v>
@@ -1299,13 +1314,13 @@
         <v>22</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="18">
         <v>10</v>
@@ -1313,13 +1328,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="23">
         <v>11</v>
@@ -1331,13 +1346,13 @@
         <v>18</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" s="18">
         <v>6.5</v>
@@ -1345,13 +1360,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="23">
         <v>11</v>
@@ -1363,13 +1378,13 @@
         <v>18</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="19">
         <v>13.5</v>
@@ -1377,13 +1392,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="C22" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="9">
         <v>11</v>
@@ -1395,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -1409,13 +1424,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="C23" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="9">
         <v>11</v>
@@ -1427,13 +1442,13 @@
         <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1441,10 +1456,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="11">
         <v>33</v>
@@ -1459,13 +1474,13 @@
         <v>54</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -1473,10 +1488,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11">
         <v>33</v>
@@ -1491,13 +1506,13 @@
         <v>54</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25">
         <v>3.5</v>
@@ -1505,10 +1520,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="8">
         <v>47</v>
@@ -1523,13 +1538,13 @@
         <v>21</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -1537,10 +1552,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="8">
         <v>47</v>
@@ -1555,13 +1570,13 @@
         <v>21</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27">
         <v>12</v>
@@ -1569,10 +1584,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="8">
         <v>44</v>
@@ -1587,13 +1602,13 @@
         <v>20</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28">
         <v>3.5</v>
@@ -1601,10 +1616,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="8">
         <v>44</v>
@@ -1619,13 +1634,13 @@
         <v>20</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29">
         <v>4</v>
@@ -1633,10 +1648,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="8">
         <v>38</v>
@@ -1651,13 +1666,13 @@
         <v>20</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -1665,10 +1680,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="8">
         <v>38</v>
@@ -1683,13 +1698,13 @@
         <v>20</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31">
         <v>8</v>
@@ -1697,10 +1712,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="8">
         <v>45</v>
@@ -1715,13 +1730,13 @@
         <v>19</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -1729,10 +1744,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="8">
         <v>45</v>
@@ -1747,13 +1762,13 @@
         <v>19</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1761,10 +1776,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="8">
         <v>46</v>
@@ -1779,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -1793,10 +1808,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="8">
         <v>46</v>
@@ -1811,13 +1826,13 @@
         <v>49</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -1825,10 +1840,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="8">
         <v>37</v>
@@ -1843,13 +1858,13 @@
         <v>27</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -1857,10 +1872,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="8">
         <v>37</v>
@@ -1875,13 +1890,13 @@
         <v>27</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J37">
         <v>3.5</v>
@@ -1889,10 +1904,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="8">
         <v>27</v>
@@ -1907,13 +1922,13 @@
         <v>21</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J38">
         <v>11.5</v>
@@ -1921,10 +1936,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="8">
         <v>27</v>
@@ -1939,13 +1954,13 @@
         <v>21</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J39">
         <v>9</v>
@@ -1953,10 +1968,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="8">
         <v>46</v>
@@ -1971,13 +1986,13 @@
         <v>24</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J40">
         <v>5</v>
@@ -1985,10 +2000,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="8">
         <v>46</v>
@@ -2003,13 +2018,13 @@
         <v>24</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J41">
         <v>11</v>
@@ -2017,10 +2032,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="8">
         <v>46</v>
@@ -2035,13 +2050,13 @@
         <v>22</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J42">
         <v>10</v>
@@ -2049,10 +2064,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="8">
         <v>46</v>
@@ -2067,13 +2082,13 @@
         <v>22</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J43">
         <v>12</v>
@@ -2081,10 +2096,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="8">
         <v>40</v>
@@ -2099,13 +2114,13 @@
         <v>18</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J44">
         <v>6</v>
@@ -2113,10 +2128,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="8">
         <v>40</v>
@@ -2131,13 +2146,13 @@
         <v>18</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J45">
         <v>6</v>
@@ -2145,10 +2160,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" s="8">
         <v>49</v>
@@ -2163,13 +2178,13 @@
         <v>19</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -2177,10 +2192,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="8">
         <v>49</v>
@@ -2195,13 +2210,13 @@
         <v>19</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J47">
         <v>4</v>
@@ -2209,10 +2224,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="8">
         <v>43</v>
@@ -2227,24 +2242,24 @@
         <v>19</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J48">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" s="8">
         <v>43</v>
@@ -2259,27 +2274,27 @@
         <v>19</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J49">
         <v>6.5</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="24">
         <v>11</v>
@@ -2291,27 +2306,27 @@
         <v>23</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="24">
         <v>11</v>
@@ -2323,27 +2338,27 @@
         <v>23</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="24">
         <v>4</v>
@@ -2355,27 +2370,27 @@
         <v>27</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J52">
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="24">
         <v>4</v>
@@ -2387,365 +2402,385 @@
         <v>27</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="27">
+        <v>18</v>
+      </c>
+      <c r="E54" s="27">
+        <v>13</v>
+      </c>
+      <c r="F54" s="27">
+        <v>20</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="18">
+        <v>3</v>
+      </c>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="27">
+        <v>18</v>
+      </c>
+      <c r="E55" s="27">
+        <v>13</v>
+      </c>
+      <c r="F55" s="27">
+        <v>20</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="18">
+        <v>3</v>
+      </c>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="27">
+        <v>6</v>
+      </c>
+      <c r="E56" s="27">
+        <v>7</v>
+      </c>
+      <c r="F56" s="27">
+        <v>20</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="18">
+        <v>4</v>
+      </c>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="27">
+        <v>6</v>
+      </c>
+      <c r="E57" s="27">
+        <v>7</v>
+      </c>
+      <c r="F57" s="27">
+        <v>20</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="18">
+        <v>6</v>
+      </c>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="15">
+      <c r="C58" s="15">
         <v>34</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D58" s="16">
         <v>2</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E58" s="16">
         <v>1</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F58" s="16">
         <v>30</v>
       </c>
-      <c r="G54" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="15">
-        <v>34</v>
-      </c>
-      <c r="D55" s="16">
-        <v>2</v>
-      </c>
-      <c r="E55" s="16">
-        <v>1</v>
-      </c>
-      <c r="F55" s="16">
-        <v>30</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="15">
-        <v>42</v>
-      </c>
-      <c r="D56" s="16">
-        <v>16</v>
-      </c>
-      <c r="E56" s="16">
-        <v>18</v>
-      </c>
-      <c r="F56" s="16">
-        <v>21</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="15">
-        <v>42</v>
-      </c>
-      <c r="D57" s="16">
-        <v>16</v>
-      </c>
-      <c r="E57" s="16">
-        <v>18</v>
-      </c>
-      <c r="F57" s="16">
-        <v>21</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="15">
-        <v>46</v>
-      </c>
-      <c r="D58" s="16">
-        <v>13</v>
-      </c>
-      <c r="E58" s="16">
-        <v>20</v>
-      </c>
-      <c r="F58" s="16">
-        <v>19</v>
-      </c>
       <c r="G58" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="15">
+        <v>34</v>
+      </c>
+      <c r="D59" s="16">
+        <v>2</v>
+      </c>
+      <c r="E59" s="16">
+        <v>1</v>
+      </c>
+      <c r="F59" s="16">
+        <v>30</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="15">
+      <c r="B60" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="15">
+        <v>42</v>
+      </c>
+      <c r="D60" s="16">
+        <v>16</v>
+      </c>
+      <c r="E60" s="16">
+        <v>18</v>
+      </c>
+      <c r="F60" s="16">
+        <v>21</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="15">
+        <v>42</v>
+      </c>
+      <c r="D61" s="16">
+        <v>16</v>
+      </c>
+      <c r="E61" s="16">
+        <v>18</v>
+      </c>
+      <c r="F61" s="16">
+        <v>21</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="15">
         <v>46</v>
       </c>
-      <c r="D59" s="16">
-        <v>13</v>
-      </c>
-      <c r="E59" s="16">
+      <c r="D62" s="16">
+        <v>13</v>
+      </c>
+      <c r="E62" s="16">
         <v>20</v>
-      </c>
-      <c r="F59" s="16">
-        <v>19</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="15">
-        <v>41</v>
-      </c>
-      <c r="D60" s="16">
-        <v>9</v>
-      </c>
-      <c r="E60" s="16">
-        <v>13</v>
-      </c>
-      <c r="F60" s="16">
-        <v>39</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="15">
-        <v>41</v>
-      </c>
-      <c r="D61" s="16">
-        <v>9</v>
-      </c>
-      <c r="E61" s="16">
-        <v>13</v>
-      </c>
-      <c r="F61" s="16">
-        <v>39</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="15">
-        <v>40</v>
-      </c>
-      <c r="D62" s="16">
-        <v>9</v>
-      </c>
-      <c r="E62" s="16">
-        <v>14</v>
       </c>
       <c r="F62" s="16">
         <v>19</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="15">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D63" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F63" s="16">
         <v>19</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" s="15">
         <v>41</v>
       </c>
       <c r="D64" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F64" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J64">
         <v>3</v>
@@ -2753,95 +2788,95 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" s="15">
         <v>41</v>
       </c>
       <c r="D65" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F65" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J65">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C66" s="15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D66" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E66" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F66" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C67" s="15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D67" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E67" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F67" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J67">
         <v>3</v>
@@ -2849,415 +2884,415 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68" s="15">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D68" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E68" s="16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F68" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J68">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C69" s="15">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D69" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E69" s="16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F69" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J69">
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D70" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E70" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F70" s="16">
         <v>21</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J70">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D71" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E71" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F71" s="16">
         <v>21</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J71">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C72" s="15">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D72" s="16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E72" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F72" s="16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73" s="15">
+        <v>29</v>
+      </c>
+      <c r="D73" s="16">
+        <v>12</v>
+      </c>
+      <c r="E73" s="16">
+        <v>16</v>
+      </c>
+      <c r="F73" s="16">
+        <v>18</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="15">
         <v>48</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="16">
         <v>9</v>
       </c>
-      <c r="E73" s="16">
-        <v>14</v>
-      </c>
-      <c r="F73" s="16">
-        <v>20</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="15">
-        <v>32</v>
-      </c>
-      <c r="D74" s="16">
-        <v>1</v>
-      </c>
       <c r="E74" s="16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F74" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>43</v>
+      <c r="A75" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C75" s="15">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D75" s="16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E75" s="16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F75" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J75">
         <v>3.5</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="22">
-        <v>8</v>
-      </c>
-      <c r="E76" s="22">
-        <v>11</v>
-      </c>
-      <c r="F76" s="22">
-        <v>26</v>
-      </c>
-      <c r="G76" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J76" s="18">
+      <c r="A76" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="15">
+        <v>48</v>
+      </c>
+      <c r="D76" s="16">
+        <v>9</v>
+      </c>
+      <c r="E76" s="16">
+        <v>14</v>
+      </c>
+      <c r="F76" s="16">
+        <v>20</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="15">
+        <v>48</v>
+      </c>
+      <c r="D77" s="16">
+        <v>9</v>
+      </c>
+      <c r="E77" s="16">
+        <v>14</v>
+      </c>
+      <c r="F77" s="16">
+        <v>20</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="15">
+        <v>32</v>
+      </c>
+      <c r="D78" s="16">
+        <v>1</v>
+      </c>
+      <c r="E78" s="16">
+        <v>4</v>
+      </c>
+      <c r="F78" s="16">
+        <v>20</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="22">
-        <v>8</v>
-      </c>
-      <c r="E77" s="22">
-        <v>11</v>
-      </c>
-      <c r="F77" s="22">
-        <v>26</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="22">
-        <v>10</v>
-      </c>
-      <c r="E78" s="22">
-        <v>14</v>
-      </c>
-      <c r="F78" s="22">
-        <v>23</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J78" s="18">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="15">
+        <v>32</v>
+      </c>
+      <c r="D79" s="16">
+        <v>1</v>
+      </c>
+      <c r="E79" s="16">
+        <v>4</v>
+      </c>
+      <c r="F79" s="16">
+        <v>20</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79">
         <v>3.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="22">
-        <v>10</v>
-      </c>
-      <c r="E79" s="22">
-        <v>14</v>
-      </c>
-      <c r="F79" s="22">
-        <v>23</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" s="18">
-        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C80" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="22">
+        <v>8</v>
+      </c>
+      <c r="E80" s="22">
+        <v>11</v>
+      </c>
+      <c r="F80" s="22">
+        <v>26</v>
+      </c>
+      <c r="G80" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="22">
-        <v>11</v>
-      </c>
-      <c r="E80" s="22">
-        <v>14</v>
-      </c>
-      <c r="F80" s="22">
-        <v>18</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="H80" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J80" s="18">
         <v>3</v>
@@ -3265,95 +3300,95 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C81" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="22">
+        <v>8</v>
+      </c>
+      <c r="E81" s="22">
+        <v>11</v>
+      </c>
+      <c r="F81" s="22">
+        <v>26</v>
+      </c>
+      <c r="G81" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="22">
-        <v>11</v>
-      </c>
-      <c r="E81" s="22">
-        <v>14</v>
-      </c>
-      <c r="F81" s="22">
-        <v>18</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="H81" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J81" s="18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" s="22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E82" s="22">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F82" s="22">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J82" s="18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" s="22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E83" s="22">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F83" s="22">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J83" s="18">
         <v>3</v>
@@ -3361,193 +3396,321 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" s="22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F84" s="22">
         <v>18</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J84" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85" s="22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F85" s="22">
         <v>18</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J85" s="18">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" s="22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E86" s="22">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F86" s="22">
         <v>18</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J86" s="18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" s="22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E87" s="22">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F87" s="22">
         <v>18</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J87" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="22">
         <v>12</v>
       </c>
-      <c r="D88" s="22">
-        <v>11</v>
-      </c>
       <c r="E88" s="22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F88" s="22">
         <v>18</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J88" s="18">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C89" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="22">
         <v>12</v>
       </c>
-      <c r="D89" s="22">
-        <v>11</v>
-      </c>
       <c r="E89" s="22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F89" s="22">
         <v>18</v>
       </c>
       <c r="G89" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="22">
+        <v>12</v>
+      </c>
+      <c r="E90" s="22">
+        <v>14</v>
+      </c>
+      <c r="F90" s="22">
         <v>18</v>
       </c>
-      <c r="H89" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="18">
+      <c r="G90" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="22">
+        <v>12</v>
+      </c>
+      <c r="E91" s="22">
+        <v>14</v>
+      </c>
+      <c r="F91" s="22">
+        <v>18</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="22">
+        <v>11</v>
+      </c>
+      <c r="E92" s="22">
+        <v>15</v>
+      </c>
+      <c r="F92" s="22">
+        <v>18</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="22">
+        <v>11</v>
+      </c>
+      <c r="E93" s="22">
+        <v>15</v>
+      </c>
+      <c r="F93" s="22">
+        <v>18</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="18">
         <v>5</v>
       </c>
     </row>
